--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2018fall.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2018fall.xlsx
@@ -728,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M47" authorId="0" shapeId="0">
+    <comment ref="M48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M48" authorId="0" shapeId="0">
+    <comment ref="M49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -777,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M50" authorId="0" shapeId="0">
+    <comment ref="M51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -801,7 +801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M53" authorId="0" shapeId="0">
+    <comment ref="M54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -826,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M56" authorId="0" shapeId="0">
+    <comment ref="M57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M59" authorId="0" shapeId="0">
+    <comment ref="M60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +875,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M66" authorId="0" shapeId="0">
+    <comment ref="M67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -904,7 +904,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="219">
   <si>
     <t>1 Music to Our Ears: Standing Waves in Strings 7</t>
   </si>
@@ -1311,9 +1311,6 @@
     <t>The Diffraction Grating</t>
   </si>
   <si>
-    <t>Refraction of Light</t>
-  </si>
-  <si>
     <t>Refraction at Spherical Surfaces: Thin Lenses</t>
   </si>
   <si>
@@ -1560,6 +1557,15 @@
   </si>
   <si>
     <t>new in 2017; replaces datastudio</t>
+  </si>
+  <si>
+    <t>Measuring the Refraction of Light</t>
+  </si>
+  <si>
+    <t>by MT, for 2018</t>
+  </si>
+  <si>
+    <t>Waves in Media, and Deriving Snell's Law</t>
   </si>
 </sst>
 </file>
@@ -2789,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T71" sqref="T71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2821,7 +2827,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D1" s="50" t="s">
         <v>85</v>
@@ -2830,19 +2836,19 @@
         <v>86</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="J1" s="50" t="s">
         <v>183</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>184</v>
       </c>
       <c r="K1" s="51" t="s">
         <v>108</v>
@@ -2851,22 +2857,22 @@
         <v>109</v>
       </c>
       <c r="M1" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N1" s="49" t="s">
         <v>100</v>
       </c>
       <c r="O1" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="52" t="s">
         <v>203</v>
-      </c>
-      <c r="P1" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q1" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="R1" s="52" t="s">
-        <v>204</v>
       </c>
       <c r="S1" s="32"/>
       <c r="T1" s="33"/>
@@ -2946,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="61">
-        <f t="shared" ref="F3:F66" si="0">CEILING(D3,T$22+1)</f>
+        <f t="shared" ref="F3:F67" si="0">CEILING(D3,T$22+1)</f>
         <v>2</v>
       </c>
       <c r="G3" s="61"/>
@@ -2973,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="76">
-        <f t="shared" ref="R3:R60" si="1">O3+2*P3+Q3</f>
+        <f t="shared" ref="R3:R61" si="1">O3+2*P3+Q3</f>
         <v>4</v>
       </c>
       <c r="S3" s="33"/>
@@ -2994,7 +3000,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="14">
         <v>5</v>
@@ -3055,10 +3061,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
@@ -3118,10 +3124,10 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="14">
         <v>2</v>
@@ -3173,10 +3179,10 @@
     <row r="7" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="B7" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="27">
         <v>1</v>
@@ -3193,7 +3199,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37">
@@ -3219,10 +3225,10 @@
         <v>74</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="14">
         <v>4</v>
@@ -3241,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L8" s="34"/>
       <c r="M8" s="36">
@@ -3278,7 +3284,7 @@
         <v>113</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="14">
         <v>2</v>
@@ -3336,7 +3342,7 @@
         <v>114</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="14">
         <v>5</v>
@@ -3388,7 +3394,7 @@
         <v>115</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
@@ -3445,10 +3451,10 @@
     </row>
     <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="14">
         <v>9</v>
@@ -3461,7 +3467,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="36">
@@ -3497,10 +3503,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="14">
         <v>3</v>
@@ -3559,10 +3565,10 @@
     </row>
     <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="14">
         <v>5</v>
@@ -3575,7 +3581,7 @@
         <v>6</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="36">
@@ -3610,10 +3616,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15" s="14">
         <v>4</v>
@@ -3626,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="36">
@@ -3667,7 +3673,7 @@
         <v>116</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="14">
         <v>5</v>
@@ -3726,7 +3732,7 @@
         <v>117</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="14">
         <v>3</v>
@@ -3770,7 +3776,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="14">
         <v>4</v>
@@ -3819,7 +3825,7 @@
         <v>119</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
@@ -3877,7 +3883,7 @@
         <v>120</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="13">
         <v>10</v>
@@ -3934,7 +3940,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="14">
         <v>8</v>
@@ -3982,7 +3988,7 @@
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U21" s="43"/>
       <c r="V21" s="33"/>
@@ -3994,10 +4000,10 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D22" s="14">
         <v>3</v>
@@ -4042,7 +4048,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D23" s="14">
         <v>3</v>
@@ -4100,7 +4106,7 @@
         <v>123</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D24" s="14">
         <v>3</v>
@@ -4160,7 +4166,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D25" s="14">
         <v>5</v>
@@ -4176,7 +4182,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N25" s="34"/>
       <c r="O25" s="34">
@@ -4191,16 +4197,16 @@
       </c>
       <c r="S25" s="33"/>
       <c r="T25" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="U25" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="W25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="W25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
@@ -4212,7 +4218,7 @@
         <v>125</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D26" s="14">
         <v>5</v>
@@ -4225,7 +4231,7 @@
         <v>6</v>
       </c>
       <c r="K26" s="57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N26" s="34"/>
       <c r="O26" s="34">
@@ -4243,16 +4249,16 @@
         <v>0</v>
       </c>
       <c r="U26" s="6">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T26,F$2:F$74)</f>
-        <v>320</v>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T26,F$2:F$75)</f>
+        <v>324</v>
       </c>
       <c r="V26" s="6">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T26,E$2:E$74)</f>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T26,E$2:E$75)</f>
         <v>16</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" ref="W26:W34" si="2">($V$17 + $V$15*U26+$V$16*V26)*(1+V$18+V$19)</f>
-        <v>30.94</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="X26" s="33"/>
       <c r="Y26" s="33"/>
@@ -4267,7 +4273,7 @@
         <v>126</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D27" s="13">
         <v>3</v>
@@ -4288,7 +4294,7 @@
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -4309,16 +4315,16 @@
         <v>0.5</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" ref="U27:U34" si="3">SUMIF(R$2:R$74,"&gt;=" &amp; T27,F$2:F$74)</f>
-        <v>210</v>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T27,F$2:F$75)</f>
+        <v>214</v>
       </c>
       <c r="V27" s="6">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T27,E$2:E$74)</f>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T27,E$2:E$75)</f>
         <v>8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="2"/>
-        <v>20.67</v>
+        <v>20.930000000000003</v>
       </c>
       <c r="X27" s="33"/>
       <c r="Y27" s="33"/>
@@ -4331,7 +4337,7 @@
         <v>127</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
@@ -4356,7 +4362,7 @@
         <v>15</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4384,24 +4390,24 @@
         <v>1</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T28,F$2:F$75)</f>
+        <v>204</v>
       </c>
       <c r="V28" s="6">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T28,E$2:E$74)</f>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T28,E$2:E$75)</f>
         <v>8</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="2"/>
-        <v>20.02</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -4417,7 +4423,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="36">
@@ -4444,16 +4450,16 @@
         <v>1.5</v>
       </c>
       <c r="U29" s="31">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T29,F$2:F$75)</f>
+        <v>194</v>
       </c>
       <c r="V29" s="31">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T29,E$2:E$74)</f>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T29,E$2:E$75)</f>
         <v>8</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="2"/>
-        <v>19.37</v>
+        <v>19.630000000000003</v>
       </c>
       <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
@@ -4462,10 +4468,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D30" s="14">
         <v>3</v>
@@ -4490,7 +4496,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4519,11 +4525,11 @@
         <v>2</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" si="3"/>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T30,F$2:F$75)</f>
         <v>174</v>
       </c>
       <c r="V30" s="6">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T30,E$2:E$74)</f>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T30,E$2:E$75)</f>
         <v>8</v>
       </c>
       <c r="W30" s="8">
@@ -4536,7 +4542,7 @@
         <v>128</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D31" s="14">
         <v>3</v>
@@ -4579,11 +4585,11 @@
         <v>2.5</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="3"/>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T31,F$2:F$75)</f>
         <v>152</v>
       </c>
       <c r="V31" s="6">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T31,E$2:E$74)</f>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T31,E$2:E$75)</f>
         <v>8</v>
       </c>
       <c r="W31" s="8">
@@ -4600,7 +4606,7 @@
         <v>97</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" s="14">
         <v>2</v>
@@ -4648,11 +4654,11 @@
         <v>3</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="3"/>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T32,F$2:F$75)</f>
         <v>148</v>
       </c>
       <c r="V32" s="6">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T32,E$2:E$74)</f>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T32,E$2:E$75)</f>
         <v>8</v>
       </c>
       <c r="W32" s="8">
@@ -4666,7 +4672,7 @@
         <v>98</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D33" s="14">
         <v>4</v>
@@ -4685,7 +4691,7 @@
         <v>19</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="20">
@@ -4712,11 +4718,11 @@
         <v>3.5</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="3"/>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T33,F$2:F$75)</f>
         <v>130</v>
       </c>
       <c r="V33" s="6">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T33,E$2:E$74)</f>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T33,E$2:E$75)</f>
         <v>8</v>
       </c>
       <c r="W33" s="8">
@@ -4733,7 +4739,7 @@
         <v>95</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="14">
         <v>3</v>
@@ -4749,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M34" s="20">
         <v>1</v>
@@ -4775,11 +4781,11 @@
         <v>4</v>
       </c>
       <c r="U34" s="47">
-        <f t="shared" si="3"/>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T34,F$2:F$75)</f>
         <v>110</v>
       </c>
       <c r="V34" s="47">
-        <f>SUMIF(R$2:R$74,"&gt;=" &amp; T34,E$2:E$74)</f>
+        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T34,E$2:E$75)</f>
         <v>8</v>
       </c>
       <c r="W34" s="9">
@@ -4793,7 +4799,7 @@
         <v>129</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D35" s="14">
         <v>7</v>
@@ -4857,7 +4863,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36" s="13">
         <v>2</v>
@@ -4870,7 +4876,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H36" s="13">
         <v>23</v>
@@ -4882,7 +4888,7 @@
         <v>22</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L36" s="12">
         <v>1</v>
@@ -4914,10 +4920,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D37" s="14">
         <v>5</v>
@@ -4971,10 +4977,10 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B38" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" s="14">
         <v>4</v>
@@ -4987,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N38" s="34"/>
       <c r="O38" s="33"/>
@@ -5009,7 +5015,7 @@
         <v>131</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D39" s="14">
         <v>6</v>
@@ -5058,7 +5064,7 @@
         <v>132</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" s="14">
         <v>5</v>
@@ -5071,7 +5077,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H40" s="14">
         <v>26</v>
@@ -5083,7 +5089,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M40" s="20">
         <v>1</v>
@@ -5115,7 +5121,7 @@
         <v>111</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D41" s="13">
         <v>6</v>
@@ -5128,7 +5134,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H41" s="13">
         <v>28</v>
@@ -5174,7 +5180,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D42" s="14">
         <v>5</v>
@@ -5187,7 +5193,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H42" s="14">
         <v>29</v>
@@ -5238,7 +5244,7 @@
         <v>133</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D43" s="14">
         <v>2</v>
@@ -5263,16 +5269,16 @@
         <v>28</v>
       </c>
       <c r="K43" s="22"/>
-      <c r="L43" s="2">
-        <v>1</v>
-      </c>
-      <c r="M43" s="20">
+      <c r="L43" s="87">
+        <v>1</v>
+      </c>
+      <c r="M43" s="89">
         <v>0.4</v>
       </c>
-      <c r="N43" s="34">
-        <v>1</v>
-      </c>
-      <c r="O43" s="34">
+      <c r="N43" s="87">
+        <v>1</v>
+      </c>
+      <c r="O43" s="87">
         <v>0.8</v>
       </c>
       <c r="P43" s="87">
@@ -5290,147 +5296,142 @@
       <c r="U43" s="6"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="14">
+        <v>4</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G44" s="14">
+        <v>43</v>
+      </c>
+      <c r="H44" s="14">
+        <v>30</v>
+      </c>
+      <c r="I44" s="14">
+        <v>13</v>
+      </c>
+      <c r="J44" s="14">
+        <v>28</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="Q44" s="87">
+        <v>0.7</v>
+      </c>
+      <c r="R44" s="77">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="S44" s="33"/>
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="13">
+      <c r="B45" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="13">
         <v>2</v>
       </c>
-      <c r="E44" s="13">
-        <v>0</v>
-      </c>
-      <c r="F44" s="13">
+      <c r="E45" s="13">
+        <v>0</v>
+      </c>
+      <c r="F45" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>38</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>31</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="13">
         <v>9</v>
       </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="12">
-        <v>1</v>
-      </c>
-      <c r="M44" s="12"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="88">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="88">
-        <v>0</v>
-      </c>
-      <c r="R44" s="78">
+      <c r="J45" s="13"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="12">
+        <v>1</v>
+      </c>
+      <c r="M45" s="12"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="88">
+        <v>0</v>
+      </c>
+      <c r="R45" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S44" s="33"/>
-      <c r="W44" s="6"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="14">
+      <c r="S45" s="33"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="14">
         <v>3</v>
       </c>
-      <c r="E45" s="14">
-        <v>0</v>
-      </c>
-      <c r="F45" s="14">
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>39</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="14">
         <v>32</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="14">
         <v>10</v>
       </c>
-      <c r="K45" s="22"/>
-      <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="87">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="87">
-        <v>0</v>
-      </c>
-      <c r="R45" s="77">
+      <c r="K46" s="22"/>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="87">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="87">
+        <v>0</v>
+      </c>
+      <c r="R46" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
-      </c>
-      <c r="S45" s="33"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="13">
-        <v>2</v>
-      </c>
-      <c r="E46" s="13">
-        <v>0</v>
-      </c>
-      <c r="F46" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13">
-        <v>33</v>
-      </c>
-      <c r="I46" s="13">
-        <v>1</v>
-      </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="12">
-        <v>1</v>
-      </c>
-      <c r="M46" s="12">
-        <v>0</v>
-      </c>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35">
-        <v>0</v>
-      </c>
-      <c r="P46" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="Q46" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="R46" s="78">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
       </c>
       <c r="S46" s="33"/>
       <c r="W46" s="6"/>
@@ -5440,57 +5441,53 @@
       <c r="AA46" s="6"/>
     </row>
     <row r="47" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="14">
-        <v>3</v>
-      </c>
-      <c r="E47" s="14">
-        <v>0</v>
-      </c>
-      <c r="F47" s="14">
+      <c r="A47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G47" s="14">
         <v>2</v>
       </c>
-      <c r="H47" s="14">
-        <v>34</v>
-      </c>
-      <c r="I47" s="14">
-        <v>6</v>
-      </c>
-      <c r="J47" s="14">
-        <v>30</v>
-      </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="2">
-        <v>1</v>
-      </c>
-      <c r="M47" s="20">
-        <v>0</v>
-      </c>
-      <c r="N47" s="34">
-        <v>0</v>
-      </c>
-      <c r="O47" s="85">
-        <v>0</v>
-      </c>
-      <c r="P47" s="87">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="87">
-        <v>0.25</v>
-      </c>
-      <c r="R47" s="77">
+      <c r="G47" s="13"/>
+      <c r="H47" s="13">
+        <v>33</v>
+      </c>
+      <c r="I47" s="13">
+        <v>1</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="12">
+        <v>1</v>
+      </c>
+      <c r="M47" s="12">
+        <v>0</v>
+      </c>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35">
+        <v>0</v>
+      </c>
+      <c r="P47" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="Q47" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="R47" s="78">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="S47" s="33"/>
       <c r="T47" s="15"/>
@@ -5503,10 +5500,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B48" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D48" s="14">
         <v>3</v>
@@ -5519,13 +5516,16 @@
         <v>4</v>
       </c>
       <c r="G48" s="14">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H48" s="14">
+        <v>34</v>
       </c>
       <c r="I48" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="2">
@@ -5541,21 +5541,24 @@
         <v>0</v>
       </c>
       <c r="P48" s="87">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="87">
+        <v>0.25</v>
       </c>
       <c r="R48" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S48" s="33"/>
       <c r="V48" s="6"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" s="14">
         <v>3</v>
@@ -5568,7 +5571,13 @@
         <v>4</v>
       </c>
       <c r="G49" s="14">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="I49" s="14">
+        <v>2</v>
+      </c>
+      <c r="J49" s="14">
+        <v>31</v>
       </c>
       <c r="K49" s="22"/>
       <c r="L49" s="2">
@@ -5577,7 +5586,9 @@
       <c r="M49" s="20">
         <v>0</v>
       </c>
-      <c r="N49" s="34"/>
+      <c r="N49" s="34">
+        <v>0</v>
+      </c>
       <c r="O49" s="85">
         <v>0</v>
       </c>
@@ -5593,53 +5604,45 @@
     <row r="50" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="14">
         <v>0</v>
       </c>
       <c r="F50" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" s="14"/>
-      <c r="I50" s="14">
-        <v>3</v>
-      </c>
-      <c r="J50" s="14">
-        <v>32</v>
-      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
       <c r="K50" s="22"/>
       <c r="L50" s="2">
         <v>1</v>
       </c>
       <c r="M50" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="N50" s="34">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N50" s="34"/>
       <c r="O50" s="85">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P50" s="87">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="87"/>
       <c r="R50" s="77">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="S50" s="33"/>
       <c r="T50" s="3"/>
@@ -5653,89 +5656,89 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D51" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="14">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G51" s="14">
         <v>6</v>
       </c>
-      <c r="G51" s="14">
-        <v>8</v>
-      </c>
-      <c r="H51" s="14">
-        <v>35</v>
-      </c>
       <c r="I51" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K51" s="22"/>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
       <c r="M51" s="20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N51" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O51" s="85">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P51" s="87">
         <v>1</v>
       </c>
       <c r="Q51" s="87">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R51" s="77">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="S51" s="33"/>
     </row>
     <row r="52" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" s="14">
         <v>5</v>
       </c>
       <c r="E52" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G52" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H52" s="14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I52" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J52" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K52" s="22"/>
       <c r="L52" s="2"/>
       <c r="M52" s="20">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N52" s="34">
         <v>1</v>
@@ -5744,14 +5747,14 @@
         <v>1</v>
       </c>
       <c r="P52" s="87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R52" s="77">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="S52" s="33"/>
       <c r="T52" s="15"/>
@@ -5763,35 +5766,36 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B53" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D53" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E53" s="14">
         <v>0</v>
       </c>
       <c r="F53" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="G53" s="14">
+        <v>9</v>
       </c>
       <c r="H53" s="14">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="I53" s="14">
+        <v>5</v>
       </c>
       <c r="J53" s="14">
-        <v>35</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="L53" s="2">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K53" s="22"/>
       <c r="M53" s="20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N53" s="34">
         <v>1</v>
@@ -5803,53 +5807,61 @@
         <v>0</v>
       </c>
       <c r="Q53" s="87">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R53" s="77">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S53" s="33"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B54" s="23" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D54" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" s="14">
         <v>0</v>
       </c>
       <c r="F54" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H54" s="14">
+        <v>37</v>
       </c>
       <c r="J54" s="14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1</v>
       </c>
       <c r="M54" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N54" s="34">
         <v>1</v>
       </c>
-      <c r="O54" s="33"/>
+      <c r="O54" s="85">
+        <v>1</v>
+      </c>
       <c r="P54" s="87">
         <v>0</v>
       </c>
       <c r="Q54" s="87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R54" s="77">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S54" s="33"/>
       <c r="X54" s="33"/>
@@ -5859,36 +5871,34 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B55" s="23" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>214</v>
       </c>
       <c r="D55" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E55" s="14">
         <v>0</v>
       </c>
       <c r="F55" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J55" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="M55" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N55" s="34">
         <v>1</v>
       </c>
-      <c r="O55" s="34">
-        <v>0.5</v>
-      </c>
+      <c r="O55" s="33"/>
       <c r="P55" s="87">
         <v>0</v>
       </c>
@@ -5897,76 +5907,85 @@
       </c>
       <c r="R55" s="77">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S55" s="33"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B56" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56" s="14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E56" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="14">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G56" s="14">
-        <v>10</v>
-      </c>
-      <c r="K56" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="J56" s="14">
+        <v>37</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>92</v>
+      </c>
       <c r="M56" s="20">
-        <v>0</v>
-      </c>
-      <c r="N56" s="34"/>
-      <c r="O56" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="N56" s="34">
+        <v>1</v>
+      </c>
+      <c r="O56" s="34">
+        <v>0.5</v>
+      </c>
       <c r="P56" s="87">
         <v>0</v>
+      </c>
+      <c r="Q56" s="87">
+        <v>0.5</v>
       </c>
       <c r="R56" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="33"/>
       <c r="X56" s="33"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B57" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D57" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E57" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K57" s="22"/>
+      <c r="M57" s="20">
+        <v>0</v>
+      </c>
       <c r="N57" s="34"/>
       <c r="O57" s="33"/>
       <c r="P57" s="87">
         <v>0</v>
       </c>
-      <c r="Q57" s="87">
-        <v>0</v>
-      </c>
       <c r="R57" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5977,127 +5996,130 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B58" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E58" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J58" s="14">
-        <v>38</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="M58" s="20">
-        <v>1</v>
-      </c>
-      <c r="N58" s="34">
-        <v>1</v>
-      </c>
-      <c r="O58" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="G58" s="14">
+        <v>11</v>
+      </c>
+      <c r="K58" s="22"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="33"/>
       <c r="P58" s="87">
         <v>0</v>
       </c>
       <c r="Q58" s="87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R58" s="77">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S58" s="33"/>
       <c r="X58" s="33"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="26" t="s">
+      <c r="B59" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D59" s="13">
-        <v>3</v>
-      </c>
-      <c r="E59" s="13">
-        <v>0</v>
-      </c>
-      <c r="F59" s="13">
+      <c r="D59" s="14">
+        <v>5</v>
+      </c>
+      <c r="E59" s="14">
+        <v>0</v>
+      </c>
+      <c r="F59" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G59" s="13">
-        <v>45</v>
-      </c>
-      <c r="H59" s="13">
-        <v>27</v>
-      </c>
-      <c r="I59" s="13">
-        <v>36</v>
-      </c>
-      <c r="J59" s="13">
-        <v>29</v>
-      </c>
-      <c r="K59" s="21"/>
-      <c r="L59" s="12">
-        <v>1</v>
-      </c>
-      <c r="M59" s="12">
+        <v>6</v>
+      </c>
+      <c r="J59" s="14">
+        <v>38</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M59" s="20">
+        <v>1</v>
+      </c>
+      <c r="N59" s="34">
+        <v>1</v>
+      </c>
+      <c r="O59" s="34"/>
+      <c r="P59" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="87">
         <v>0.5</v>
       </c>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="88">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="78">
+      <c r="R59" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S59" s="33"/>
       <c r="W59" s="6"/>
       <c r="X59" s="33"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B60" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="14">
-        <v>7</v>
-      </c>
-      <c r="E60" s="14">
-        <v>2</v>
-      </c>
-      <c r="F60" s="14">
+      <c r="A60" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="13">
+        <v>3</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G60" s="14">
-        <v>46</v>
-      </c>
-      <c r="K60" s="22"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="87">
-        <v>0</v>
-      </c>
-      <c r="R60" s="77">
+        <v>4</v>
+      </c>
+      <c r="G60" s="13">
+        <v>45</v>
+      </c>
+      <c r="H60" s="13">
+        <v>27</v>
+      </c>
+      <c r="I60" s="13">
+        <v>36</v>
+      </c>
+      <c r="J60" s="13">
+        <v>29</v>
+      </c>
+      <c r="K60" s="21"/>
+      <c r="L60" s="12">
+        <v>1</v>
+      </c>
+      <c r="M60" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6106,10 +6128,10 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B61" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D61" s="14">
         <v>7</v>
@@ -6122,7 +6144,7 @@
         <v>8</v>
       </c>
       <c r="G61" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61" s="22"/>
       <c r="N61" s="34"/>
@@ -6131,47 +6153,40 @@
         <v>0</v>
       </c>
       <c r="R61" s="77">
-        <f t="shared" ref="R61:R73" si="4">O61+2*P61+Q61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S61" s="33"/>
       <c r="X61" s="33"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="48"/>
-      <c r="B62" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="27">
-        <v>10</v>
-      </c>
-      <c r="E62" s="27">
-        <v>0</v>
-      </c>
-      <c r="F62" s="27">
+      <c r="B62" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="14">
+        <v>7</v>
+      </c>
+      <c r="E62" s="14">
+        <v>2</v>
+      </c>
+      <c r="F62" s="14">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G62" s="27">
-        <v>34</v>
-      </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="79">
-        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G62" s="14">
+        <v>47</v>
+      </c>
+      <c r="K62" s="22"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="87">
+        <v>0</v>
+      </c>
+      <c r="R62" s="77">
+        <f t="shared" ref="R62:R74" si="3">O62+2*P62+Q62</f>
         <v>0</v>
       </c>
       <c r="S62" s="33"/>
@@ -6181,38 +6196,40 @@
       <c r="AA62" s="6"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" s="14">
-        <v>4</v>
-      </c>
-      <c r="E63" s="14">
-        <v>0</v>
-      </c>
-      <c r="F63" s="14">
+      <c r="A63" s="48"/>
+      <c r="B63" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="27">
+        <v>10</v>
+      </c>
+      <c r="E63" s="27">
+        <v>0</v>
+      </c>
+      <c r="F63" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G63" s="14">
-        <v>48</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="N63" s="34"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="87">
-        <v>0</v>
-      </c>
-      <c r="R63" s="77">
-        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G63" s="27">
+        <v>34</v>
+      </c>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="79">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S63" s="33"/>
@@ -6220,14 +6237,17 @@
       <c r="X63" s="33"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B64" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D64" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" s="14">
         <v>0</v>
@@ -6237,16 +6257,18 @@
         <v>4</v>
       </c>
       <c r="G64" s="14">
-        <v>49</v>
-      </c>
-      <c r="K64" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>199</v>
+      </c>
       <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
+      <c r="O64" s="33"/>
       <c r="P64" s="87">
         <v>0</v>
       </c>
       <c r="R64" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S64" s="33"/>
@@ -6255,13 +6277,13 @@
     <row r="65" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C65" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="31" t="s">
         <v>213</v>
       </c>
       <c r="D65" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="14">
         <v>0</v>
@@ -6270,24 +6292,24 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G65" s="14"/>
+      <c r="G65" s="14">
+        <v>49</v>
+      </c>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
-      <c r="K65" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="L65" s="87"/>
-      <c r="M65" s="89"/>
-      <c r="N65" s="87"/>
-      <c r="O65" s="87"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
       <c r="P65" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="87"/>
       <c r="R65" s="77">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="S65" s="33"/>
       <c r="T65" s="3"/>
@@ -6300,123 +6322,117 @@
       <c r="AA65"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="B66" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="14">
+        <v>4</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0</v>
+      </c>
+      <c r="F66" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L66" s="87"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="87"/>
+      <c r="P66" s="87">
+        <v>1</v>
+      </c>
+      <c r="R66" s="77">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S66" s="33"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="13">
+      <c r="B67" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="13">
         <v>2</v>
       </c>
-      <c r="E66" s="13">
-        <v>0</v>
-      </c>
-      <c r="F66" s="13">
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="12">
-        <v>1</v>
-      </c>
-      <c r="M66" s="12">
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="12">
+        <v>1</v>
+      </c>
+      <c r="M67" s="12">
         <v>0.8</v>
       </c>
-      <c r="N66" s="35">
-        <v>1</v>
-      </c>
-      <c r="O66" s="35">
-        <v>1</v>
-      </c>
-      <c r="P66" s="88">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="88">
-        <v>1</v>
-      </c>
-      <c r="R66" s="78">
-        <f t="shared" si="4"/>
+      <c r="N67" s="35">
+        <v>1</v>
+      </c>
+      <c r="O67" s="35">
+        <v>1</v>
+      </c>
+      <c r="P67" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="88">
+        <v>1</v>
+      </c>
+      <c r="R67" s="78">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="S66" s="33"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="30"/>
-      <c r="B67" s="31" t="s">
+      <c r="S67" s="33"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A68" s="30"/>
+      <c r="B68" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="14">
+      <c r="C68" s="31"/>
+      <c r="D68" s="14">
         <v>2</v>
       </c>
-      <c r="E67" s="14">
-        <v>1</v>
-      </c>
-      <c r="F67" s="14">
-        <f t="shared" ref="F67:F73" si="5">CEILING(D67,T$22+1)</f>
+      <c r="E68" s="14">
+        <v>1</v>
+      </c>
+      <c r="F68" s="14">
+        <f t="shared" ref="F68:F74" si="4">CEILING(D68,T$22+1)</f>
         <v>2</v>
       </c>
-      <c r="K67" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="L67" s="20"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36">
-        <v>1</v>
-      </c>
-      <c r="P67" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="89">
-        <v>1</v>
-      </c>
-      <c r="R67" s="77">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="S67" s="33"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B68" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="14">
-        <v>4</v>
-      </c>
-      <c r="E68" s="14">
-        <v>3</v>
-      </c>
-      <c r="F68" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K68" s="22"/>
-      <c r="L68" s="2">
-        <v>1</v>
-      </c>
-      <c r="M68" s="20">
-        <v>1</v>
-      </c>
-      <c r="N68" s="34">
-        <v>1</v>
-      </c>
-      <c r="O68" s="85">
-        <v>1</v>
-      </c>
-      <c r="P68" s="87">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="87">
+      <c r="K68" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L68" s="20"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36">
+        <v>1</v>
+      </c>
+      <c r="P68" s="89">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="89">
         <v>1</v>
       </c>
       <c r="R68" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="S68" s="33"/>
@@ -6426,27 +6442,27 @@
     <row r="69" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
-      <c r="K69" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L69" s="2"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
       <c r="M69" s="20">
         <v>1</v>
       </c>
@@ -6463,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="R69" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="S69" s="33"/>
@@ -6478,26 +6494,39 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B70" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D70" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="M70" s="20">
+        <v>1</v>
+      </c>
+      <c r="N70" s="34">
+        <v>1</v>
+      </c>
+      <c r="O70" s="85">
+        <v>1</v>
+      </c>
+      <c r="P70" s="87">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="87">
+        <v>1</v>
+      </c>
+      <c r="R70" s="77">
+        <f t="shared" si="3"/>
         <v>4</v>
-      </c>
-      <c r="K70" s="22"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
-      <c r="R70" s="77">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="S70" s="33"/>
       <c r="X70" s="6"/>
@@ -6508,18 +6537,18 @@
     <row r="71" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -6530,7 +6559,7 @@
       <c r="M71" s="20"/>
       <c r="N71" s="34"/>
       <c r="R71" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T71" s="3"/>
@@ -6544,95 +6573,100 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B72" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D72" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E72" s="14">
         <v>0</v>
       </c>
       <c r="F72" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="K72" s="22"/>
-      <c r="L72" s="87"/>
-      <c r="M72" s="89"/>
-      <c r="N72" s="87"/>
+      <c r="N72" s="34"/>
       <c r="O72" s="33"/>
       <c r="P72" s="33"/>
       <c r="Q72" s="33"/>
       <c r="R72" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S72" s="33"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B73" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="27">
-        <v>1</v>
-      </c>
-      <c r="E73" s="27">
-        <v>0</v>
-      </c>
-      <c r="F73" s="27">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28">
-        <v>1</v>
-      </c>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37">
-        <v>1</v>
-      </c>
-      <c r="P73" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="90">
-        <v>1</v>
-      </c>
-      <c r="R73" s="79">
+      <c r="B73" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="14">
+        <v>4</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0</v>
+      </c>
+      <c r="F73" s="14">
         <f t="shared" si="4"/>
         <v>4</v>
+      </c>
+      <c r="K73" s="22"/>
+      <c r="L73" s="87"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="87"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="77">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="S73" s="33"/>
       <c r="U73" s="33"/>
       <c r="V73" s="33"/>
       <c r="W73" s="33"/>
     </row>
-    <row r="74" spans="1:27" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="11"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="3"/>
+    <row r="74" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="27">
+        <v>1</v>
+      </c>
+      <c r="E74" s="27">
+        <v>0</v>
+      </c>
+      <c r="F74" s="27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28">
+        <v>1</v>
+      </c>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37">
+        <v>1</v>
+      </c>
+      <c r="P74" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="90">
+        <v>1</v>
+      </c>
+      <c r="R74" s="79">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="S74" s="15"/>
       <c r="T74" s="3"/>
       <c r="U74"/>
@@ -6643,63 +6677,37 @@
       <c r="Z74" s="33"/>
       <c r="AA74" s="33"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="K75" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="L75" s="65">
-        <f t="array" ref="L75">SUM($F2:$F73*(L2:L73&gt;=0.9)*($R2:$R73&gt;=$T$12))</f>
+    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="11"/>
+      <c r="S75" s="15"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K76" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="L76" s="65">
+        <f t="array" ref="L76">SUM($F2:$F74*(L2:L74&gt;=0.9)*($R2:$R74&gt;=$T$12))</f>
         <v>96</v>
       </c>
-      <c r="M75" s="65">
-        <f t="array" ref="M75">SUM($F2:$F73*(M2:M73&gt;=0.9)*($R2:$R73&gt;=$T$12))</f>
+      <c r="M76" s="65">
+        <f t="array" ref="M76">SUM($F2:$F74*(M2:M74&gt;=0.9)*($R2:$R74&gt;=$T$12))</f>
         <v>148</v>
       </c>
-      <c r="N75" s="65">
-        <f t="array" ref="N75">SUM($F2:$F73*(N2:N73&gt;=0.9)*($R2:$R73&gt;=$T$12))</f>
+      <c r="N76" s="65">
+        <f t="array" ref="N76">SUM($F2:$F74*(N2:N74&gt;=0.9)*($R2:$R74&gt;=$T$12))</f>
         <v>156</v>
       </c>
-      <c r="O75" s="65">
-        <f t="array" ref="O75">SUM($F2:$F73*(O2:O73&gt;=0.9)*($R2:$R73&gt;=$T$12))</f>
+      <c r="O76" s="65">
+        <f t="array" ref="O76">SUM($F2:$F74*(O2:O74&gt;=0.9)*($R2:$R74&gt;=$T$12))</f>
         <v>150</v>
       </c>
-      <c r="P75" s="65">
-        <f t="array" ref="P75">SUM($F2:$F73*(P2:P73&gt;=0.9)*($R2:$R73&gt;=$T$12))</f>
+      <c r="P76" s="65">
+        <f t="array" ref="P76">SUM($F2:$F74*(P2:P74&gt;=0.9)*($R2:$R74&gt;=$T$12))</f>
         <v>154</v>
       </c>
-      <c r="Q75" s="66">
-        <f t="array" ref="Q75">SUM($F2:$F73*(Q2:Q73&gt;=0.9)*($R2:$R73&gt;=$T$12))</f>
+      <c r="Q76" s="66">
+        <f t="array" ref="Q76">SUM($F2:$F74*(Q2:Q74&gt;=0.9)*($R2:$R74&gt;=$T$12))</f>
         <v>134</v>
-      </c>
-      <c r="S75" s="15"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="K76" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="L76" s="68">
-        <f t="array" ref="L76">SUM($F2:$F73*L2:L73*($R2:$R73&gt;=$T$12))</f>
-        <v>98</v>
-      </c>
-      <c r="M76" s="68">
-        <f t="array" ref="M76">SUM($F2:$F73*M2:M73*($R2:$R73&gt;=$T$12))</f>
-        <v>153.4</v>
-      </c>
-      <c r="N76" s="68">
-        <f t="array" ref="N76">SUM($F2:$F73*N2:N73*($R2:$R73&gt;=$T$12))</f>
-        <v>157</v>
-      </c>
-      <c r="O76" s="68">
-        <f t="array" ref="O76">SUM($F2:$F73*O2:O73*($R2:$R73&gt;=$T$12))</f>
-        <v>162.4</v>
-      </c>
-      <c r="P76" s="68">
-        <f t="array" ref="P76">SUM($F2:$F73*P2:P73*($R2:$R73&gt;=$T$12))</f>
-        <v>166.8</v>
-      </c>
-      <c r="Q76" s="69">
-        <f t="array" ref="Q76">SUM($F2:$F73*Q2:Q73*($R2:$R73&gt;=$T$12))</f>
-        <v>155.5</v>
       </c>
       <c r="S76" s="15"/>
       <c r="X76" s="6"/>
@@ -6712,28 +6720,28 @@
         <v>168</v>
       </c>
       <c r="L77" s="68">
-        <f t="array" ref="L77">SUM($F$2:$F$73*(L$2:L$73&gt;=0.1)*($R$2:$R$73&gt;=$T$12))</f>
-        <v>100</v>
+        <f t="array" ref="L77">SUM($F2:$F74*L2:L74*($R2:$R74&gt;=$T$12))</f>
+        <v>98</v>
       </c>
       <c r="M77" s="68">
-        <f t="array" ref="M77">SUM($F$2:$F$73*(M$2:M$73&gt;=0.1)*($R$2:$R$73&gt;=$T$12))</f>
-        <v>164</v>
+        <f t="array" ref="M77">SUM($F2:$F74*M2:M74*($R2:$R74&gt;=$T$12))</f>
+        <v>153.4</v>
       </c>
       <c r="N77" s="68">
-        <f t="array" ref="N77">SUM($F$2:$F$73*(N$2:N$73&gt;=0.1)*($R$2:$R$73&gt;=$T$12))</f>
-        <v>158</v>
+        <f t="array" ref="N77">SUM($F2:$F74*N2:N74*($R2:$R74&gt;=$T$12))</f>
+        <v>157</v>
       </c>
       <c r="O77" s="68">
-        <f t="array" ref="O77">SUM($F$2:$F$73*(O$2:O$73&gt;=0.1)*($R$2:$R$73&gt;=$T$12))</f>
-        <v>170</v>
+        <f t="array" ref="O77">SUM($F2:$F74*O2:O74*($R2:$R74&gt;=$T$12))</f>
+        <v>162.4</v>
       </c>
       <c r="P77" s="68">
-        <f t="array" ref="P77">SUM($F$2:$F$73*(P$2:P$73&gt;=0.1)*($R$2:$R$73&gt;=$T$12))</f>
-        <v>174</v>
+        <f t="array" ref="P77">SUM($F2:$F74*P2:P74*($R2:$R74&gt;=$T$12))</f>
+        <v>168.8</v>
       </c>
       <c r="Q77" s="69">
-        <f t="array" ref="Q77">SUM($F$2:$F$73*(Q$2:Q$73&gt;=0.1)*($R$2:$R$73&gt;=$T$12))</f>
-        <v>174</v>
+        <f t="array" ref="Q77">SUM($F2:$F74*Q2:Q74*($R2:$R74&gt;=$T$12))</f>
+        <v>158.30000000000001</v>
       </c>
       <c r="S77" s="15"/>
     </row>
@@ -6749,31 +6757,31 @@
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
       <c r="K78" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="L78" s="68">
+        <f t="array" ref="L78">SUM($F$2:$F$74*(L$2:L$74&gt;=0.1)*($R$2:$R$74&gt;=$T$12))</f>
+        <v>100</v>
+      </c>
+      <c r="M78" s="68">
+        <f t="array" ref="M78">SUM($F$2:$F$74*(M$2:M$74&gt;=0.1)*($R$2:$R$74&gt;=$T$12))</f>
+        <v>164</v>
+      </c>
+      <c r="N78" s="68">
+        <f t="array" ref="N78">SUM($F$2:$F$74*(N$2:N$74&gt;=0.1)*($R$2:$R$74&gt;=$T$12))</f>
+        <v>158</v>
+      </c>
+      <c r="O78" s="68">
+        <f t="array" ref="O78">SUM($F$2:$F$74*(O$2:O$74&gt;=0.1)*($R$2:$R$74&gt;=$T$12))</f>
         <v>170</v>
       </c>
-      <c r="L78" s="68">
-        <f>LOOKUP($T$12,$T26:$T34,$U26:$U34)</f>
-        <v>190</v>
-      </c>
-      <c r="M78" s="68">
-        <f>LOOKUP($T$12,$T26:$T34,$U26:$U34)</f>
-        <v>190</v>
-      </c>
-      <c r="N78" s="68">
-        <f>LOOKUP($T$12,$T26:$T34,$U26:$U34)</f>
-        <v>190</v>
-      </c>
-      <c r="O78" s="68">
-        <f>LOOKUP($T$12,$T26:$T34,$U26:$U34)</f>
-        <v>190</v>
-      </c>
       <c r="P78" s="68">
-        <f>LOOKUP($T$12,$T26:$T34,$U26:$U34)</f>
-        <v>190</v>
+        <f t="array" ref="P78">SUM($F$2:$F$74*(P$2:P$74&gt;=0.1)*($R$2:$R$74&gt;=$T$12))</f>
+        <v>178</v>
       </c>
       <c r="Q78" s="69">
-        <f>LOOKUP($T$12,$T26:$T34,$U26:$U34)</f>
-        <v>190</v>
+        <f t="array" ref="Q78">SUM($F$2:$F$74*(Q$2:Q$74&gt;=0.1)*($R$2:$R$74&gt;=$T$12))</f>
+        <v>178</v>
       </c>
       <c r="R78" s="3"/>
       <c r="S78" s="15"/>
@@ -6788,61 +6796,60 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="K79" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="L79" s="70">
-        <f t="shared" ref="L79:N79" si="6">L76/L78</f>
-        <v>0.51578947368421058</v>
-      </c>
-      <c r="M79" s="70">
+        <v>169</v>
+      </c>
+      <c r="L79" s="68">
+        <f t="shared" ref="L79:Q79" si="5">LOOKUP($T$12,$T26:$T34,$U26:$U34)</f>
+        <v>194</v>
+      </c>
+      <c r="M79" s="68">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+      <c r="N79" s="68">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+      <c r="O79" s="68">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+      <c r="P79" s="68">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+      <c r="Q79" s="69">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K80" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="L80" s="70">
+        <f t="shared" ref="L80:N80" si="6">L77/L79</f>
+        <v>0.50515463917525771</v>
+      </c>
+      <c r="M80" s="70">
         <f t="shared" si="6"/>
-        <v>0.80736842105263162</v>
-      </c>
-      <c r="N79" s="70">
+        <v>0.79072164948453616</v>
+      </c>
+      <c r="N80" s="70">
         <f t="shared" si="6"/>
-        <v>0.82631578947368423</v>
-      </c>
-      <c r="O79" s="70">
-        <f t="shared" ref="O79:P79" si="7">O76/O78</f>
-        <v>0.85473684210526324</v>
-      </c>
-      <c r="P79" s="70">
+        <v>0.80927835051546393</v>
+      </c>
+      <c r="O80" s="70">
+        <f t="shared" ref="O80:P80" si="7">O77/O79</f>
+        <v>0.83711340206185569</v>
+      </c>
+      <c r="P80" s="70">
         <f t="shared" si="7"/>
-        <v>0.87789473684210528</v>
-      </c>
-      <c r="Q79" s="71">
-        <f t="shared" ref="Q79" si="8">Q76/Q78</f>
-        <v>0.81842105263157894</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D80" s="33"/>
-      <c r="K80" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="L80" s="73">
-        <f t="array" ref="L80">SUM($F2:$F73*L2:L73*($R2:$R73&lt;$T$12))</f>
-        <v>18</v>
-      </c>
-      <c r="M80" s="73">
-        <f t="array" ref="M80">SUM($F2:$F73*M2:M73*($R2:$R73&lt;$T$12))</f>
-        <v>21.6</v>
-      </c>
-      <c r="N80" s="73">
-        <f t="array" ref="N80">SUM($F2:$F73*N2:N73*($R2:$R73&lt;$T$12))</f>
-        <v>20</v>
-      </c>
-      <c r="O80" s="73">
-        <f t="array" ref="O80">SUM($F2:$F73*O2:O73*($R2:$R73&lt;$T$12))</f>
-        <v>7</v>
-      </c>
-      <c r="P80" s="73">
-        <f t="array" ref="P80">SUM($F2:$F73*P2:P73*($R2:$R73&lt;$T$12))</f>
-        <v>0</v>
-      </c>
-      <c r="Q80" s="74">
-        <f t="array" ref="Q80">SUM($F2:$F73*Q2:Q73*($R2:$R73&lt;$T$12))</f>
-        <v>8</v>
+        <v>0.87010309278350517</v>
+      </c>
+      <c r="Q80" s="71">
+        <f t="shared" ref="Q80" si="8">Q77/Q79</f>
+        <v>0.81597938144329907</v>
       </c>
       <c r="U80" s="33"/>
       <c r="V80" s="33"/>
@@ -6852,8 +6859,35 @@
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D81" s="33"/>
+      <c r="K81" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="L81" s="73">
+        <f t="array" ref="L81">SUM($F2:$F74*L2:L74*($R2:$R74&lt;$T$12))</f>
+        <v>18</v>
+      </c>
+      <c r="M81" s="73">
+        <f t="array" ref="M81">SUM($F2:$F74*M2:M74*($R2:$R74&lt;$T$12))</f>
+        <v>21.6</v>
+      </c>
+      <c r="N81" s="73">
+        <f t="array" ref="N81">SUM($F2:$F74*N2:N74*($R2:$R74&lt;$T$12))</f>
+        <v>20</v>
+      </c>
+      <c r="O81" s="73">
+        <f t="array" ref="O81">SUM($F2:$F74*O2:O74*($R2:$R74&lt;$T$12))</f>
+        <v>7</v>
+      </c>
+      <c r="P81" s="73">
+        <f t="array" ref="P81">SUM($F2:$F74*P2:P74*($R2:$R74&lt;$T$12))</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="74">
+        <f t="array" ref="Q81">SUM($F2:$F74*Q2:Q74*($R2:$R74&lt;$T$12))</f>
+        <v>8</v>
+      </c>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
@@ -6864,6 +6898,9 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D83" s="33"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D84" s="33"/>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="W85" s="33"/>
@@ -6922,7 +6959,7 @@
       <c r="AA116" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:R73">
+  <conditionalFormatting sqref="B2:R74">
     <cfRule type="expression" dxfId="2" priority="34" stopIfTrue="1">
       <formula>$R2&gt;=(0.5+$T$12)</formula>
     </cfRule>

--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2018fall.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2018fall.xlsx
@@ -1305,9 +1305,6 @@
     <t>Deriving Electromagnetic Waves</t>
   </si>
   <si>
-    <t>Electromagnetic Plane Waves</t>
-  </si>
-  <si>
     <t>The Diffraction Grating</t>
   </si>
   <si>
@@ -1566,6 +1563,9 @@
   </si>
   <si>
     <t>Waves in Media, and Deriving Snell's Law</t>
+  </si>
+  <si>
+    <t>Visualizing Electromagnetic Plane Waves</t>
   </si>
 </sst>
 </file>
@@ -2795,8 +2795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2827,7 +2828,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1" s="50" t="s">
         <v>85</v>
@@ -2836,19 +2837,19 @@
         <v>86</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="J1" s="50" t="s">
         <v>182</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>183</v>
       </c>
       <c r="K1" s="51" t="s">
         <v>108</v>
@@ -2857,22 +2858,22 @@
         <v>109</v>
       </c>
       <c r="M1" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N1" s="49" t="s">
         <v>100</v>
       </c>
       <c r="O1" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="R1" s="52" t="s">
         <v>202</v>
-      </c>
-      <c r="P1" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="52" t="s">
-        <v>203</v>
       </c>
       <c r="S1" s="32"/>
       <c r="T1" s="33"/>
@@ -3000,7 +3001,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="14">
         <v>5</v>
@@ -3061,10 +3062,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
@@ -3124,10 +3125,10 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="14">
         <v>2</v>
@@ -3179,10 +3180,10 @@
     <row r="7" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="B7" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="27">
         <v>1</v>
@@ -3199,7 +3200,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37">
@@ -3225,10 +3226,10 @@
         <v>74</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="14">
         <v>4</v>
@@ -3247,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L8" s="34"/>
       <c r="M8" s="36">
@@ -3284,7 +3285,7 @@
         <v>113</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="14">
         <v>2</v>
@@ -3342,7 +3343,7 @@
         <v>114</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="14">
         <v>5</v>
@@ -3394,7 +3395,7 @@
         <v>115</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
@@ -3451,10 +3452,10 @@
     </row>
     <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="14">
         <v>9</v>
@@ -3467,7 +3468,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="36">
@@ -3503,10 +3504,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" s="14">
         <v>3</v>
@@ -3565,10 +3566,10 @@
     </row>
     <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" s="14">
         <v>5</v>
@@ -3581,7 +3582,7 @@
         <v>6</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="36">
@@ -3616,10 +3617,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="14">
         <v>4</v>
@@ -3632,7 +3633,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="36">
@@ -3673,7 +3674,7 @@
         <v>116</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="14">
         <v>5</v>
@@ -3732,7 +3733,7 @@
         <v>117</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="14">
         <v>3</v>
@@ -3776,7 +3777,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="14">
         <v>4</v>
@@ -3825,7 +3826,7 @@
         <v>119</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
@@ -3883,7 +3884,7 @@
         <v>120</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="13">
         <v>10</v>
@@ -3940,7 +3941,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" s="14">
         <v>8</v>
@@ -3988,7 +3989,7 @@
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U21" s="43"/>
       <c r="V21" s="33"/>
@@ -4000,10 +4001,10 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" s="14">
         <v>3</v>
@@ -4048,7 +4049,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="14">
         <v>3</v>
@@ -4106,7 +4107,7 @@
         <v>123</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D24" s="14">
         <v>3</v>
@@ -4166,7 +4167,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" s="14">
         <v>5</v>
@@ -4182,7 +4183,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N25" s="34"/>
       <c r="O25" s="34">
@@ -4197,16 +4198,16 @@
       </c>
       <c r="S25" s="33"/>
       <c r="T25" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="U25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="W25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="W25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
@@ -4218,7 +4219,7 @@
         <v>125</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" s="14">
         <v>5</v>
@@ -4231,7 +4232,7 @@
         <v>6</v>
       </c>
       <c r="K26" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N26" s="34"/>
       <c r="O26" s="34">
@@ -4249,15 +4250,15 @@
         <v>0</v>
       </c>
       <c r="U26" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T26,F$2:F$75)</f>
+        <f t="shared" ref="U26:U34" si="2">SUMIF(R$2:R$75,"&gt;=" &amp; T26,F$2:F$75)</f>
         <v>324</v>
       </c>
       <c r="V26" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T26,E$2:E$75)</f>
+        <f t="shared" ref="V26:V34" si="3">SUMIF(R$2:R$75,"&gt;=" &amp; T26,E$2:E$75)</f>
         <v>16</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" ref="W26:W34" si="2">($V$17 + $V$15*U26+$V$16*V26)*(1+V$18+V$19)</f>
+        <f t="shared" ref="W26:W34" si="4">($V$17 + $V$15*U26+$V$16*V26)*(1+V$18+V$19)</f>
         <v>31.200000000000003</v>
       </c>
       <c r="X26" s="33"/>
@@ -4273,7 +4274,7 @@
         <v>126</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" s="13">
         <v>3</v>
@@ -4294,7 +4295,7 @@
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -4315,15 +4316,15 @@
         <v>0.5</v>
       </c>
       <c r="U27" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T27,F$2:F$75)</f>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="V27" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T27,E$2:E$75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.930000000000003</v>
       </c>
       <c r="X27" s="33"/>
@@ -4337,7 +4338,7 @@
         <v>127</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
@@ -4362,7 +4363,7 @@
         <v>15</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4390,24 +4391,24 @@
         <v>1</v>
       </c>
       <c r="U28" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T28,F$2:F$75)</f>
+        <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="V28" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T28,E$2:E$75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.28</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -4423,7 +4424,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="36">
@@ -4450,15 +4451,15 @@
         <v>1.5</v>
       </c>
       <c r="U29" s="31">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T29,F$2:F$75)</f>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="V29" s="31">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T29,E$2:E$75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.630000000000003</v>
       </c>
       <c r="X29" s="33"/>
@@ -4468,10 +4469,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D30" s="14">
         <v>3</v>
@@ -4496,7 +4497,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4525,15 +4526,15 @@
         <v>2</v>
       </c>
       <c r="U30" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T30,F$2:F$75)</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="V30" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T30,E$2:E$75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="W30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.330000000000002</v>
       </c>
     </row>
@@ -4542,7 +4543,7 @@
         <v>128</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31" s="14">
         <v>3</v>
@@ -4585,15 +4586,15 @@
         <v>2.5</v>
       </c>
       <c r="U31" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T31,F$2:F$75)</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="V31" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T31,E$2:E$75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.900000000000002</v>
       </c>
       <c r="X31" s="33"/>
@@ -4606,7 +4607,7 @@
         <v>97</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D32" s="14">
         <v>2</v>
@@ -4654,15 +4655,15 @@
         <v>3</v>
       </c>
       <c r="U32" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T32,F$2:F$75)</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="V32" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T32,E$2:E$75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="W32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.64</v>
       </c>
     </row>
@@ -4672,7 +4673,7 @@
         <v>98</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D33" s="14">
         <v>4</v>
@@ -4691,7 +4692,7 @@
         <v>19</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="20">
@@ -4718,15 +4719,15 @@
         <v>3.5</v>
       </c>
       <c r="U33" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T33,F$2:F$75)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="V33" s="6">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T33,E$2:E$75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="W33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.47</v>
       </c>
       <c r="X33"/>
@@ -4739,7 +4740,7 @@
         <v>95</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" s="14">
         <v>3</v>
@@ -4755,7 +4756,7 @@
         <v>20</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M34" s="20">
         <v>1</v>
@@ -4781,15 +4782,15 @@
         <v>4</v>
       </c>
       <c r="U34" s="47">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T34,F$2:F$75)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="V34" s="47">
-        <f>SUMIF(R$2:R$75,"&gt;=" &amp; T34,E$2:E$75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="W34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.170000000000002</v>
       </c>
     </row>
@@ -4799,7 +4800,7 @@
         <v>129</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="14">
         <v>7</v>
@@ -4863,7 +4864,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D36" s="13">
         <v>2</v>
@@ -4876,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H36" s="13">
         <v>23</v>
@@ -4888,7 +4889,7 @@
         <v>22</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L36" s="12">
         <v>1</v>
@@ -4920,10 +4921,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" s="14">
         <v>5</v>
@@ -4977,10 +4978,10 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B38" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="14">
         <v>4</v>
@@ -4993,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N38" s="34"/>
       <c r="O38" s="33"/>
@@ -5015,7 +5016,7 @@
         <v>131</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D39" s="14">
         <v>6</v>
@@ -5061,10 +5062,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B40" s="23" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" s="14">
         <v>5</v>
@@ -5077,7 +5078,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H40" s="14">
         <v>26</v>
@@ -5089,7 +5090,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M40" s="20">
         <v>1</v>
@@ -5121,7 +5122,7 @@
         <v>111</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" s="13">
         <v>6</v>
@@ -5134,7 +5135,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H41" s="13">
         <v>28</v>
@@ -5180,7 +5181,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" s="14">
         <v>5</v>
@@ -5193,7 +5194,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H42" s="14">
         <v>29</v>
@@ -5241,10 +5242,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B43" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" s="14">
         <v>2</v>
@@ -5297,10 +5298,10 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B44" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" s="14">
         <v>4</v>
@@ -5325,7 +5326,7 @@
         <v>28</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N44" s="34"/>
       <c r="O44" s="34"/>
@@ -5347,10 +5348,10 @@
         <v>80</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="13">
         <v>2</v>
@@ -5393,10 +5394,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B46" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D46" s="14">
         <v>3</v>
@@ -5445,10 +5446,10 @@
         <v>81</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D47" s="13">
         <v>2</v>
@@ -5500,10 +5501,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B48" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" s="14">
         <v>3</v>
@@ -5555,10 +5556,10 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D49" s="14">
         <v>3</v>
@@ -5604,10 +5605,10 @@
     <row r="50" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D50" s="14">
         <v>3</v>
@@ -5656,10 +5657,10 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -5708,10 +5709,10 @@
     <row r="52" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52" s="14">
         <v>5</v>
@@ -5766,10 +5767,10 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B53" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" s="14">
         <v>5</v>
@@ -5817,10 +5818,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B54" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D54" s="14">
         <v>1</v>
@@ -5839,7 +5840,7 @@
         <v>35</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L54" s="2">
         <v>1</v>
@@ -5874,7 +5875,7 @@
         <v>96</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D55" s="14">
         <v>3</v>
@@ -5890,7 +5891,7 @@
         <v>36</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M55" s="20">
         <v>0.5</v>
@@ -5914,10 +5915,10 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B56" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D56" s="14">
         <v>5</v>
@@ -5959,10 +5960,10 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B57" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="14">
         <v>9</v>
@@ -5996,10 +5997,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B58" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D58" s="14">
         <v>7</v>
@@ -6032,10 +6033,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B59" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D59" s="14">
         <v>5</v>
@@ -6051,7 +6052,7 @@
         <v>38</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M59" s="20">
         <v>1</v>
@@ -6079,10 +6080,10 @@
         <v>82</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="13">
         <v>3</v>
@@ -6128,10 +6129,10 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B61" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D61" s="14">
         <v>7</v>
@@ -6161,10 +6162,10 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B62" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" s="14">
         <v>7</v>
@@ -6186,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="77">
-        <f t="shared" ref="R62:R74" si="3">O62+2*P62+Q62</f>
+        <f t="shared" ref="R62:R74" si="5">O62+2*P62+Q62</f>
         <v>0</v>
       </c>
       <c r="S62" s="33"/>
@@ -6198,10 +6199,10 @@
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
       <c r="B63" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D63" s="27">
         <v>10</v>
@@ -6229,7 +6230,7 @@
       </c>
       <c r="Q63" s="90"/>
       <c r="R63" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S63" s="33"/>
@@ -6241,10 +6242,10 @@
         <v>83</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D64" s="14">
         <v>4</v>
@@ -6260,7 +6261,7 @@
         <v>48</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N64" s="34"/>
       <c r="O64" s="33"/>
@@ -6268,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S64" s="33"/>
@@ -6277,10 +6278,10 @@
     <row r="65" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" s="14">
         <v>3</v>
@@ -6308,7 +6309,7 @@
       </c>
       <c r="Q65" s="87"/>
       <c r="R65" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S65" s="33"/>
@@ -6323,10 +6324,10 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B66" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D66" s="14">
         <v>4</v>
@@ -6339,7 +6340,7 @@
         <v>4</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L66" s="87"/>
       <c r="M66" s="89"/>
@@ -6349,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="R66" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S66" s="33"/>
@@ -6359,7 +6360,7 @@
         <v>84</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="13">
@@ -6396,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="R67" s="78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="S67" s="33"/>
@@ -6414,11 +6415,11 @@
         <v>1</v>
       </c>
       <c r="F68" s="14">
-        <f t="shared" ref="F68:F74" si="4">CEILING(D68,T$22+1)</f>
+        <f t="shared" ref="F68:F74" si="6">CEILING(D68,T$22+1)</f>
         <v>2</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L68" s="20"/>
       <c r="N68" s="36"/>
@@ -6432,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="R68" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="S68" s="33"/>
@@ -6442,7 +6443,7 @@
     <row r="69" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="14">
@@ -6452,7 +6453,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G69" s="14"/>
@@ -6479,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="R69" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="S69" s="33"/>
@@ -6494,7 +6495,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B70" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" s="14">
         <v>1</v>
@@ -6503,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K70" s="22" t="s">
@@ -6525,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="R70" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="S70" s="33"/>
@@ -6537,7 +6538,7 @@
     <row r="71" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="14">
@@ -6547,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G71" s="14"/>
@@ -6559,7 +6560,7 @@
       <c r="M71" s="20"/>
       <c r="N71" s="34"/>
       <c r="R71" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T71" s="3"/>
@@ -6573,7 +6574,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B72" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" s="14">
         <v>1</v>
@@ -6582,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K72" s="22"/>
@@ -6591,14 +6592,14 @@
       <c r="P72" s="33"/>
       <c r="Q72" s="33"/>
       <c r="R72" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S72" s="33"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B73" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" s="14">
         <v>4</v>
@@ -6607,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K73" s="22"/>
@@ -6618,7 +6619,7 @@
       <c r="P73" s="33"/>
       <c r="Q73" s="33"/>
       <c r="R73" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S73" s="33"/>
@@ -6629,7 +6630,7 @@
     <row r="74" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="27">
@@ -6639,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G74" s="27"/>
@@ -6647,7 +6648,7 @@
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
       <c r="K74" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L74" s="28"/>
       <c r="M74" s="28">
@@ -6664,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="R74" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="S74" s="15"/>
@@ -6683,7 +6684,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="K76" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L76" s="65">
         <f t="array" ref="L76">SUM($F2:$F74*(L2:L74&gt;=0.9)*($R2:$R74&gt;=$T$12))</f>
@@ -6717,7 +6718,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="K77" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L77" s="68">
         <f t="array" ref="L77">SUM($F2:$F74*L2:L74*($R2:$R74&gt;=$T$12))</f>
@@ -6757,7 +6758,7 @@
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
       <c r="K78" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L78" s="68">
         <f t="array" ref="L78">SUM($F$2:$F$74*(L$2:L$74&gt;=0.1)*($R$2:$R$74&gt;=$T$12))</f>
@@ -6796,59 +6797,59 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="K79" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L79" s="68">
-        <f t="shared" ref="L79:Q79" si="5">LOOKUP($T$12,$T26:$T34,$U26:$U34)</f>
+        <f t="shared" ref="L79:Q79" si="7">LOOKUP($T$12,$T26:$T34,$U26:$U34)</f>
         <v>194</v>
       </c>
       <c r="M79" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="N79" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="O79" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="P79" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="Q79" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="K80" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L80" s="70">
-        <f t="shared" ref="L80:N80" si="6">L77/L79</f>
+        <f t="shared" ref="L80:N80" si="8">L77/L79</f>
         <v>0.50515463917525771</v>
       </c>
       <c r="M80" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.79072164948453616</v>
       </c>
       <c r="N80" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.80927835051546393</v>
       </c>
       <c r="O80" s="70">
-        <f t="shared" ref="O80:P80" si="7">O77/O79</f>
+        <f t="shared" ref="O80:P80" si="9">O77/O79</f>
         <v>0.83711340206185569</v>
       </c>
       <c r="P80" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.87010309278350517</v>
       </c>
       <c r="Q80" s="71">
-        <f t="shared" ref="Q80" si="8">Q77/Q79</f>
+        <f t="shared" ref="Q80" si="10">Q77/Q79</f>
         <v>0.81597938144329907</v>
       </c>
       <c r="U80" s="33"/>
